--- a/data/trans_camb/P2A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>4.272838947387814</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-5.000048273472784</v>
+        <v>-5.000048273472796</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>6.144141814200566</v>
@@ -655,7 +655,7 @@
         <v>2.680549842827762</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-13.71617070769786</v>
+        <v>-13.71617070769785</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>9.038369029684368</v>
@@ -664,7 +664,7 @@
         <v>3.496784584765289</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-9.242931427358197</v>
+        <v>-9.242931427358203</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.474230020817348</v>
+        <v>6.502945311228124</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.275495789475576</v>
+        <v>-0.9626837637707195</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.64612595068573</v>
+        <v>-10.4938148838609</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.810329550645125</v>
+        <v>0.6177531030390887</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.253581274259475</v>
+        <v>-2.273568417907229</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-18.17944389249159</v>
+        <v>-18.6294526724549</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.248138347930936</v>
+        <v>5.160730344498155</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.2779927577144984</v>
+        <v>-0.1512988628316138</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-12.82876361139462</v>
+        <v>-12.97336814498534</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.66667809580918</v>
+        <v>16.82892837141782</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.971265569661393</v>
+        <v>9.539837322708827</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3854593791409291</v>
+        <v>0.3651134823246435</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.92530090576941</v>
+        <v>10.80010930641928</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.000376977248893</v>
+        <v>8.194096226943214</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-8.93082921192563</v>
+        <v>-8.625565305075259</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>12.56523540544507</v>
+        <v>12.57400513557842</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.603896626205592</v>
+        <v>7.496018871356915</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-5.895571591732418</v>
+        <v>-5.430448507206118</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.08797451085449863</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1029471989288447</v>
+        <v>-0.1029471989288449</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.09766443035125465</v>
@@ -760,7 +760,7 @@
         <v>0.04260877781545501</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.2180258918620311</v>
+        <v>-0.218025891862031</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.16223806441029</v>
@@ -769,7 +769,7 @@
         <v>0.06276702808093591</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1659099445183861</v>
+        <v>-0.1659099445183863</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1268598641910323</v>
+        <v>0.1235246007821355</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.02425301214961223</v>
+        <v>-0.018289515312494</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2037791424878905</v>
+        <v>-0.2034675529126861</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.01228145565387813</v>
+        <v>0.009221143706025142</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03415348628151667</v>
+        <v>-0.03483544485285623</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2806379966978461</v>
+        <v>-0.2840469878275805</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09084549475559302</v>
+        <v>0.09045241715325954</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.005400823744918593</v>
+        <v>-0.00213362130572506</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2258149587056488</v>
+        <v>-0.2257235200711068</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3952758071130443</v>
+        <v>0.3651122304582993</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2229014018839327</v>
+        <v>0.2073984020118771</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.01055639344835987</v>
+        <v>0.0091902819295129</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1821531531077175</v>
+        <v>0.1784351628392783</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1333860419699542</v>
+        <v>0.1349407409333073</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1489733133851554</v>
+        <v>-0.1451813034221374</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2345663988930274</v>
+        <v>0.2368810538064007</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1412359778033467</v>
+        <v>0.1393869562263746</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1090697115654145</v>
+        <v>-0.1026818634089387</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>2.994561495539988</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-8.596729660128648</v>
+        <v>-8.596729660128656</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5.962389799063638</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3064600502411463</v>
+        <v>1.149077955140357</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.409555354238665</v>
+        <v>-1.980318475334832</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.62600815181852</v>
+        <v>-13.2937914647409</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.058249872568464</v>
+        <v>1.603776887749038</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.855319905541257</v>
+        <v>-3.956953254261609</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-20.30985718586951</v>
+        <v>-20.30323157154152</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.549427793888257</v>
+        <v>2.466926207207232</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.486289528720889</v>
+        <v>-1.441294140731288</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-15.61533792534106</v>
+        <v>-15.56798717085938</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.03197310015063</v>
+        <v>10.79128418460408</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.781295812124039</v>
+        <v>7.356005060866663</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-3.983057054167212</v>
+        <v>-4.075118092341385</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.61319489056395</v>
+        <v>9.891586991690147</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.792619601314593</v>
+        <v>4.827251863909547</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-11.98386155703137</v>
+        <v>-11.88338560663349</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>8.966839650306119</v>
+        <v>9.054681959678179</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.232970547632492</v>
+        <v>5.038246880328737</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-9.469897898878205</v>
+        <v>-8.92645932087977</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.0615057744072379</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.1765695965514103</v>
+        <v>-0.1765695965514104</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.0914120688745006</v>
@@ -974,7 +974,7 @@
         <v>0.00612469412631657</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2507497423126816</v>
+        <v>-0.2507497423126815</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1020781915855886</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.003349624162710247</v>
+        <v>0.0240016523037493</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.02821144897478152</v>
+        <v>-0.03810761455166415</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.265146178297714</v>
+        <v>-0.2615693304837212</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.03066272821086588</v>
+        <v>0.02479536576105951</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05733355007742338</v>
+        <v>-0.05845803625021307</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3028488708520183</v>
+        <v>-0.3031663433391708</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04414814932198174</v>
+        <v>0.04239470161564816</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02554771337833658</v>
+        <v>-0.02409667826456082</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2671779243183494</v>
+        <v>-0.267775348886465</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2184087002558017</v>
+        <v>0.2351598103820103</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1674596379612064</v>
+        <v>0.1599932845938186</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.08309597866471093</v>
+        <v>-0.08804800168064769</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1693157636644921</v>
+        <v>0.1578312131290741</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07586236227821623</v>
+        <v>0.07799847030635805</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1925202561133831</v>
+        <v>-0.1898497760431729</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1621284328349551</v>
+        <v>0.1639591265092323</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.09440192519217865</v>
+        <v>0.09158950355869032</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.170054655025563</v>
+        <v>-0.1612185352963441</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.7394011037009429</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-9.705751484733833</v>
+        <v>-9.705751484733828</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.936635711501335</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.927808236611838</v>
+        <v>-4.746887109934381</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.834243287888508</v>
+        <v>-5.795037250454292</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.46728500105892</v>
+        <v>-15.25786828139167</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.068840367576974</v>
+        <v>-1.170351597522071</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-9.006220114250036</v>
+        <v>-8.550258460341848</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-25.62884896908775</v>
+        <v>-25.67685857930859</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.15339649026985</v>
+        <v>-1.335015597952088</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.986028449081826</v>
+        <v>-6.162124763218308</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-19.30403878362138</v>
+        <v>-19.33430246142991</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.348618944135533</v>
+        <v>6.249565509014836</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.746194729670287</v>
+        <v>4.664207378724036</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-4.684926047353666</v>
+        <v>-3.533989279559546</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.013482895917802</v>
+        <v>9.197881925940546</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.216670625162924</v>
+        <v>1.897409660912247</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-16.15283617623072</v>
+        <v>-16.17475661275123</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.386661716737567</v>
+        <v>6.059323359037467</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.578412429758553</v>
+        <v>1.819015249558498</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-11.8628381148613</v>
+        <v>-11.7744275572902</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.01499152702027381</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1967863381690328</v>
+        <v>-0.1967863381690327</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.06182003564616699</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.09317906755647649</v>
+        <v>-0.09201158759800707</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1124049192266619</v>
+        <v>-0.1138556800883444</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2919899050439522</v>
+        <v>-0.2965852517984164</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.01616034089511502</v>
+        <v>-0.01625678582640773</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1353360936205941</v>
+        <v>-0.1306893751176147</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3907872313885068</v>
+        <v>-0.3888149747226157</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.0205200901271915</v>
+        <v>-0.02301110750945458</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1028138914259277</v>
+        <v>-0.1036232202898388</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.330454164496789</v>
+        <v>-0.3278935883682187</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1401838088501222</v>
+        <v>0.1342348288474766</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1035068353646951</v>
+        <v>0.09747770371135538</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.0931992034733542</v>
+        <v>-0.07474082276317398</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1480524208418232</v>
+        <v>0.1518114720952559</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.02007489541851692</v>
+        <v>0.03169772996074641</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.264201996534642</v>
+        <v>-0.2606395598292225</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1165341283264073</v>
+        <v>0.1113558495528717</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.02955647665799285</v>
+        <v>0.0333218402432411</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.2157826995398834</v>
+        <v>-0.2134373754018875</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>8.867436646759563</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-10.25168100384907</v>
+        <v>-10.25168100384906</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>5.218548234335318</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.457256035832056</v>
+        <v>6.686325959256396</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.466166214782375</v>
+        <v>4.57809256394613</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-15.08527989492913</v>
+        <v>-14.89998041051782</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.020053329878091</v>
+        <v>0.8774802882203968</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.302371569933217</v>
+        <v>-3.850223358437114</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-22.71907313955898</v>
+        <v>-23.33465656868355</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.790836883653279</v>
+        <v>5.046859994502912</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.192842029669813</v>
+        <v>1.173626364513246</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-17.96372623031025</v>
+        <v>-17.65708550181404</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.73555497100604</v>
+        <v>15.80918552651167</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.52859349694077</v>
+        <v>13.76849005933684</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-6.11907596374684</v>
+        <v>-5.264012223416872</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.305640777364035</v>
+        <v>9.328038229246108</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.054446637135149</v>
+        <v>4.617246599788425</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-14.74782372117945</v>
+        <v>-14.81794926107003</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>11.05143509963019</v>
+        <v>11.27333050699018</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.028828392241953</v>
+        <v>7.503922594172153</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-11.99264825272888</v>
+        <v>-11.52651095039297</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.190902485388604</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2207031706012922</v>
+        <v>-0.220703170601292</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.08250985379095443</v>
@@ -1402,7 +1402,7 @@
         <v>0.003629942663288089</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.2982732590323022</v>
+        <v>-0.2982732590323023</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1479734451558954</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1340033183505659</v>
+        <v>0.1360772081137341</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.09273012673218826</v>
+        <v>0.09510584130890858</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3084247107107489</v>
+        <v>-0.3088191064703459</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.01609520782415895</v>
+        <v>0.01335489834836676</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.06680001611548658</v>
+        <v>-0.05908549318524212</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3495722967213332</v>
+        <v>-0.353798946550091</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08313144074150303</v>
+        <v>0.08868498395114321</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.02085328780252645</v>
+        <v>0.02050819795460105</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3142390092699642</v>
+        <v>-0.3093328530705503</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3594040966501575</v>
+        <v>0.3616059477519692</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3066656250851179</v>
+        <v>0.3138720432935422</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1343070380984416</v>
+        <v>-0.1217201240721651</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1533654251908289</v>
+        <v>0.1543812597663598</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.06751789022040702</v>
+        <v>0.07486017841849699</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2437451068454672</v>
+        <v>-0.2415348773439323</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2083238803438955</v>
+        <v>0.2103241569101891</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1309143573490107</v>
+        <v>0.1391441633324793</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2209883926233389</v>
+        <v>-0.2134185090859523</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>5.022423697499815</v>
+        <v>4.965936282717059</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.714321147717725</v>
+        <v>1.699405782374669</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-11.21944337387865</v>
+        <v>-11.04555467476576</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.001057604665321</v>
+        <v>3.222508051388046</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.491767824460716</v>
+        <v>-2.329961432593324</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-19.85547479478418</v>
+        <v>-19.60875166373358</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.66969604465828</v>
+        <v>4.647047061286851</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1625064353849596</v>
+        <v>0.277882210926192</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-14.70102862606933</v>
+        <v>-14.93570025575316</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.84310986686911</v>
+        <v>10.01464105578231</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.458796573086333</v>
+        <v>6.515415190856776</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-6.083480236000467</v>
+        <v>-5.988349550480778</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.657975686140602</v>
+        <v>7.655317733695666</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.308788306294558</v>
+        <v>2.38807739153328</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-15.30136493998066</v>
+        <v>-15.28726678013895</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.042626565397454</v>
+        <v>8.141601907686583</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.678257882746082</v>
+        <v>3.735680458538199</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-11.45084790133414</v>
+        <v>-11.37171926713803</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.001437753069386584</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.2752663456705512</v>
+        <v>-0.2752663456705513</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1146212950111216</v>
@@ -1625,7 +1625,7 @@
         <v>0.03553994123868547</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.2334892272988599</v>
+        <v>-0.23348922729886</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1004158117220018</v>
+        <v>0.1012280889060444</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.03447076939763349</v>
+        <v>0.03461160091901971</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2278509720178458</v>
+        <v>-0.2247948199203177</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.04621749218285342</v>
+        <v>0.0500534820577679</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.03833476633339711</v>
+        <v>-0.03584734016669397</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3048262465709999</v>
+        <v>-0.3045604968389142</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08158261484944762</v>
+        <v>0.08229080880760024</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.00297856986598048</v>
+        <v>0.004879653993353339</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2581626683335816</v>
+        <v>-0.2606111021116708</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2102960488641189</v>
+        <v>0.2144562865448416</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1378139389744396</v>
+        <v>0.1385803120345258</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1296632409043148</v>
+        <v>-0.128569744094597</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1223245645737076</v>
+        <v>0.1224633373376153</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.03713132161391284</v>
+        <v>0.03810747186425718</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.2456279223852343</v>
+        <v>-0.2444991386377564</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1454668958277239</v>
+        <v>0.1479284492327655</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.06667627271734433</v>
+        <v>0.06788385862797776</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.2062874663195866</v>
+        <v>-0.2057410087446001</v>
       </c>
     </row>
     <row r="34">
